--- a/results/summary/models_comparison_report.xlsx
+++ b/results/summary/models_comparison_report.xlsx
@@ -463,13 +463,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7445255474452555</v>
+        <v>0.7320574162679426</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8978102207183838</v>
+        <v>0.8755980730056763</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9416058659553528</v>
+        <v>0.9282296895980835</v>
       </c>
     </row>
     <row r="3">
@@ -479,13 +479,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.291970802919708</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4233576655387878</v>
+        <v>0.4114832580089569</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6642335653305054</v>
+        <v>0.6555023789405823</v>
       </c>
     </row>
     <row r="4">
@@ -495,13 +495,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1970802919708029</v>
+        <v>0.1961722488038277</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3868613243103027</v>
+        <v>0.4162679314613342</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6423357725143433</v>
+        <v>0.6507176756858826</v>
       </c>
     </row>
     <row r="5">
@@ -511,13 +511,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1240875912408759</v>
+        <v>0.1100478468899522</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2481751888990402</v>
+        <v>0.2488038241863251</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3795620501041412</v>
+        <v>0.3923445045948029</v>
       </c>
     </row>
   </sheetData>
@@ -591,16 +591,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4736842105263158</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6428571428571429</v>
+        <v>0.6736842105263158</v>
       </c>
     </row>
     <row r="3">
@@ -618,16 +618,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.9375</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7741935483870968</v>
+        <v>0.7317073170731707</v>
       </c>
     </row>
     <row r="4">
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E4" t="n">
-        <v>0.625</v>
+        <v>0.5581395348837209</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8823529411764706</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7317073170731707</v>
+        <v>0.6956521739130435</v>
       </c>
     </row>
     <row r="5">
@@ -672,16 +672,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9</v>
+        <v>0.9032258064516129</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.9180327868852459</v>
       </c>
     </row>
     <row r="6">
@@ -699,16 +699,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7111111111111111</v>
+        <v>0.7076923076923077</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8648648648648649</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7804878048780488</v>
+        <v>0.7603305785123967</v>
       </c>
     </row>
     <row r="7">
@@ -726,16 +726,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4117647058823529</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="F7" t="n">
-        <v>0.875</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5161290322580645</v>
       </c>
     </row>
     <row r="8">
@@ -753,7 +753,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -780,16 +780,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3125</v>
+        <v>0.25</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.2</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="10">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -834,16 +834,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E11" t="n">
-        <v>0.35</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3684210526315789</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="G11" t="n">
-        <v>0.358974358974359</v>
+        <v>0.360655737704918</v>
       </c>
     </row>
     <row r="12">
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2828282828282828</v>
+        <v>0.2697368421052632</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7567567567567568</v>
+        <v>0.7321428571428571</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4117647058823529</v>
+        <v>0.3942307692307692</v>
       </c>
     </row>
     <row r="13">
@@ -888,7 +888,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -915,16 +915,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.2758620689655172</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.253968253968254</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.2644628099173554</v>
       </c>
     </row>
     <row r="15">
@@ -942,16 +942,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.125</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.12</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1621621621621622</v>
+        <v>0.1224489795918367</v>
       </c>
     </row>
     <row r="16">
@@ -969,16 +969,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F16" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.06666666666666667</v>
       </c>
     </row>
     <row r="17">
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.1707317073170732</v>
       </c>
       <c r="F17" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2133333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="18">
@@ -1023,16 +1023,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2592592592592592</v>
+        <v>0.1842105263157895</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1891891891891892</v>
+        <v>0.125</v>
       </c>
       <c r="G18" t="n">
-        <v>0.21875</v>
+        <v>0.148936170212766</v>
       </c>
     </row>
     <row r="19">
@@ -1050,7 +1050,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1104,16 +1104,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1641791044776119</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.36</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2588235294117647</v>
+        <v>0.1978021978021978</v>
       </c>
     </row>
     <row r="22">
@@ -1131,16 +1131,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0625</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="G22" t="n">
-        <v>0.09876543209876543</v>
+        <v>0.1008403361344538</v>
       </c>
     </row>
     <row r="23">
@@ -1158,16 +1158,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1063829787234043</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G23" t="n">
-        <v>0.16</v>
+        <v>0.1298701298701299</v>
       </c>
     </row>
     <row r="24">
@@ -1185,16 +1185,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>0.05357142857142857</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.1016949152542373</v>
       </c>
     </row>
     <row r="25">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
